--- a/Ricardo/T2/Sprint 1/Plan_de_Pruebas.xlsx
+++ b/Ricardo/T2/Sprint 1/Plan_de_Pruebas.xlsx
@@ -70,7 +70,7 @@
     <t>Se proporcionan nombres como props.</t>
   </si>
   <si>
-    <t>Nombres: ['Ana', 'Juan', 'Luis']</t>
+    <t>Nombres: ['Ricardo', 'Oksana', 'Manuel Pacheco']</t>
   </si>
   <si>
     <t>Verificar mensajes personalizados.</t>
@@ -91,7 +91,7 @@
     <t>Se proporciona array de frutas.</t>
   </si>
   <si>
-    <t>Array de frutas: ['Manzana', 'Banana', 'Cereza']</t>
+    <t>Array de frutas: ['Manzana', 'Banana', 'Naranja']</t>
   </si>
   <si>
     <t>Verificar elementos de lista y sus imágenes.</t>
@@ -179,7 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -560,7 +560,7 @@
     <col min="4" max="4" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="48.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="42.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="59.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -678,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -816,7 +816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -839,7 +839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>5</v>
       </c>
